--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample12-custom-file-name-from-binding.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample12-custom-file-name-from-binding.xlsx
@@ -6,6 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
+    <sheet name="ssss" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Inventory'!$D$3:$H$3</definedName>
@@ -432,4 +433,15 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample12-custom-file-name-from-binding.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample12-custom-file-name-from-binding.xlsx
@@ -6,7 +6,6 @@
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
-    <sheet name="ssss" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Inventory'!$D$3:$H$3</definedName>
@@ -433,15 +432,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <headerFooter/>
-</worksheet>
 </file>